--- a/Assign4/Assignment 4 Data.xlsx
+++ b/Assign4/Assignment 4 Data.xlsx
@@ -8,27 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renad\Documents\Code\Stats1-Assignments-in-R\Assign4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6753972-F1AC-4F17-8DDC-FF1B92AEBAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C982FB-B287-4FE3-9940-23A64DA6AC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17040" xr2:uid="{4F4B1D4A-9D69-449A-A7A3-6D8C857ECE28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17040" activeTab="1" xr2:uid="{4F4B1D4A-9D69-449A-A7A3-6D8C857ECE28}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q1 | Online Shopping " sheetId="1" r:id="rId1"/>
-    <sheet name="Q2 | Speed Limit " sheetId="3" r:id="rId2"/>
-    <sheet name="Q3 | CO-OP Salary " sheetId="2" r:id="rId3"/>
+    <sheet name="Question 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Question 3" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Q1 | Online Shopping '!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Q1 | Online Shopping '!$A$2:$A$251</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Q3 | CO-OP Salary '!$A$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Q3 | CO-OP Salary '!$A$3:$A$110</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Q3 | CO-OP Salary '!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Q3 | CO-OP Salary '!$B$2:$B$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Q3 | CO-OP Salary '!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Q3 | CO-OP Salary '!$C$2:$C$106</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Q3 | CO-OP Salary '!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Q3 | CO-OP Salary '!$D$2:$D$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -124,23 +112,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,9 +133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -484,17 +458,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B478431-8880-41B9-95B6-8DFF40C3125E}">
   <dimension ref="A1:A254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A227" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J245" sqref="J245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2000" max="2000" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -568,7 +543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1748,13 +1723,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="7">
-        <f>SUM(A2:A251)</f>
-        <v>6553</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A251">
@@ -1768,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D475642-5F03-407D-B88F-086938C5B2F4}">
   <dimension ref="A1:A401"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E392" sqref="E392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3795,10 +3765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49465F7-A63B-407E-9EC0-F869C98EBDFF}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L10:L11"/>
+    <sheetView topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3828,6 +3798,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>18719</v>
+      </c>
       <c r="B2" s="3">
         <v>23451</v>
       </c>
@@ -3848,7 +3821,7 @@
       <c r="C3" s="3">
         <v>24185</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>23563</v>
       </c>
     </row>
@@ -3898,7 +3871,7 @@
       <c r="A7" s="3">
         <v>21623</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>27430</v>
       </c>
       <c r="C7" s="3">
@@ -4254,7 +4227,7 @@
       <c r="C32" s="3">
         <v>32857</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>29710</v>
       </c>
     </row>
@@ -4486,7 +4459,7 @@
       <c r="A49" s="3">
         <v>27303</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>40105</v>
       </c>
       <c r="C49" s="3">
@@ -4807,7 +4780,7 @@
         <v>29385</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>41715</v>
       </c>
       <c r="D77" s="3"/>
@@ -4857,7 +4830,7 @@
         <v>29934</v>
       </c>
       <c r="B82" s="3"/>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>42635</v>
       </c>
       <c r="D82" s="3"/>
@@ -5055,29 +5028,20 @@
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>36345</v>
+      </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>37025</v>
+      </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
-        <v>18719</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
-        <v>36345</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>37025</v>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D106">

--- a/Assign4/Assignment 4 Data.xlsx
+++ b/Assign4/Assignment 4 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renad\Documents\Code\Stats1-Assignments-in-R\Assign4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C982FB-B287-4FE3-9940-23A64DA6AC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFBFAFF-60FA-40E4-AEBE-0B63FF61D187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17040" activeTab="1" xr2:uid="{4F4B1D4A-9D69-449A-A7A3-6D8C857ECE28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17040" activeTab="2" xr2:uid="{4F4B1D4A-9D69-449A-A7A3-6D8C857ECE28}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Business Administration</t>
-  </si>
-  <si>
     <t>Accounting</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>Bus. Admin.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1738,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D475642-5F03-407D-B88F-086938C5B2F4}">
   <dimension ref="A1:A401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E392" sqref="E392"/>
     </sheetView>
   </sheetViews>
@@ -1752,7 +1752,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3767,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49465F7-A63B-407E-9EC0-F869C98EBDFF}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:A106"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3785,16 +3785,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
